--- a/Docs/Auswertung.xlsx
+++ b/Docs/Auswertung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\GitHub\Vergleichsprogramm\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0348E485-7A51-4E5A-98F5-4E42A3E04E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7182842A-EB44-43F8-BDD9-935E35785D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59745" yWindow="990" windowWidth="28800" windowHeight="15105" activeTab="1" xr2:uid="{388948E0-F48B-4D39-A8BF-521842870DDC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{388948E0-F48B-4D39-A8BF-521842870DDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Ergebnisse für Lesetest" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Write</t>
   </si>
@@ -112,15 +112,19 @@
   </si>
   <si>
     <t>ChatGPT op</t>
+  </si>
+  <si>
+    <t>Modern C++</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -265,11 +269,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -283,14 +287,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -299,6 +299,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -633,7 +634,7 @@
         <v>9.5561999999999994E-2</v>
       </c>
       <c r="D2" s="1">
-        <f>C2/B2</f>
+        <f t="shared" ref="D2:D8" si="0">C2/B2</f>
         <v>9.4063104430893704E-2</v>
       </c>
     </row>
@@ -648,7 +649,7 @@
         <v>0.24809899999999999</v>
       </c>
       <c r="D3" s="1">
-        <f>C3/B3</f>
+        <f t="shared" si="0"/>
         <v>3.424550607014739E-2</v>
       </c>
     </row>
@@ -663,7 +664,7 @@
         <v>6.4060000000000002E-3</v>
       </c>
       <c r="D4" s="1">
-        <f>C4/B4</f>
+        <f t="shared" si="0"/>
         <v>0.15377598540496423</v>
       </c>
     </row>
@@ -678,7 +679,7 @@
         <v>0.44278600000000001</v>
       </c>
       <c r="D5" s="1">
-        <f>C5/B5</f>
+        <f t="shared" si="0"/>
         <v>0.25783081035851146</v>
       </c>
     </row>
@@ -693,7 +694,7 @@
         <v>9.4899999999999997E-4</v>
       </c>
       <c r="D6" s="1">
-        <f>C6/B6</f>
+        <f t="shared" si="0"/>
         <v>0.39247311827956988</v>
       </c>
     </row>
@@ -708,7 +709,7 @@
         <v>1.5100000000000001E-4</v>
       </c>
       <c r="D7" s="1">
-        <f>C7/B7</f>
+        <f t="shared" si="0"/>
         <v>0.36739659367396593</v>
       </c>
     </row>
@@ -723,7 +724,7 @@
         <v>2.1670000000000001E-3</v>
       </c>
       <c r="D8" s="1">
-        <f>C8/B8</f>
+        <f t="shared" si="0"/>
         <v>0.29495031985844561</v>
       </c>
     </row>
@@ -753,18 +754,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4479C0AE-B510-4E7D-B6C5-BA39171D2D0A}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="44.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="7"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8" t="s">
@@ -783,350 +786,409 @@
         <v>22</v>
       </c>
       <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="11">
         <v>384860</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="4">
         <v>0.102787</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="4">
         <v>0.44824000000000003</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="4">
         <v>1.2649999999999999</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="4">
         <v>0.97399999999999998</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="12">
         <v>2.1536219999999999</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="12">
+        <v>8.8321999999999998E-2</v>
+      </c>
+      <c r="J2" s="4">
         <v>0.98143400000000003</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>0.97243800000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M2" s="17">
+        <f>ROUND(K2/I2,1)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="12">
+      <c r="C3" s="4">
         <v>4.986E-3</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="4">
         <v>4.1162999999999998E-2</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="4">
         <v>0.188</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <v>0.50436399999999992</v>
       </c>
-      <c r="I3" s="4">
-        <v>6.7713999999999996E-2</v>
+      <c r="I3" s="12">
+        <v>5.6769999999999998E-3</v>
       </c>
       <c r="J3" s="4">
         <v>6.7713999999999996E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K3" s="4">
+        <v>6.7713999999999996E-2</v>
+      </c>
+      <c r="M3" s="17">
+        <f>ROUND(K3/I3,1)</f>
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="12">
+      <c r="C4" s="4">
         <v>0.255494</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="4">
         <v>1.674304</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="4">
         <v>5.9379999999999997</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="4">
         <v>10.426</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>1.83948</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="12">
+        <v>0.23141400000000001</v>
+      </c>
+      <c r="J4" s="4">
         <v>6.52102</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>7.8458889999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M4" s="17">
+        <f>ROUND(K4/I4,1)</f>
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="12">
+      <c r="C5" s="4">
         <v>0.218138</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="4">
         <v>0.66128300000000007</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="4">
         <v>1.4219999999999999</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="4">
         <v>1.6910000000000001</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>12.17784</v>
       </c>
-      <c r="I5" s="4">
-        <v>1.7035400000000001</v>
+      <c r="I5" s="12">
+        <v>0.40496399999999999</v>
       </c>
       <c r="J5" s="4">
         <v>1.7035400000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K5" s="4">
+        <v>1.7035400000000001</v>
+      </c>
+      <c r="M5" s="17">
+        <f>ROUND(K5/I5,1)</f>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="12">
+      <c r="C6" s="4">
         <v>0.199436</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="4">
         <v>1.1821900000000001</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="4">
         <v>0.92200000000000004</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="4">
         <v>2.0920000000000001</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>1.297598</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="12"/>
+      <c r="J6" s="4">
         <v>1.3489249999999999</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>1.1634089999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="12">
+      <c r="C7" s="4">
         <v>1.1328209999999999</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="4">
         <v>3.0340819999999997</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="4">
         <v>5.843</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="4">
         <v>6.1440000000000001</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>20.076326000000002</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="12">
+        <v>0.75113200000000002</v>
+      </c>
+      <c r="J7" s="5">
         <v>7.962974</v>
       </c>
-      <c r="J7" s="6">
+      <c r="K7" s="6">
         <v>73.287053</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M7" s="17">
+        <f>ROUND(K7/I7,1)</f>
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="12">
+      <c r="C8" s="4">
         <v>2.3708E-2</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="4">
         <v>1.9059999999999999E-3</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="4">
         <v>1.6E-2</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="4">
         <v>0</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>0.153339</v>
       </c>
-      <c r="I8" s="4">
-        <v>6.8253999999999995E-2</v>
-      </c>
+      <c r="I8" s="12"/>
       <c r="J8" s="4">
         <v>6.8253999999999995E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K8" s="4">
+        <v>6.8253999999999995E-2</v>
+      </c>
+      <c r="M8" s="17"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="11">
         <v>384860</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="4">
         <v>0.14733199999999999</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="4">
         <v>7.1715299999999997</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="4">
         <v>1.016</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="4">
         <v>1.3069999999999999</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <v>5.6912979999999997</v>
       </c>
-      <c r="I9" s="4">
-        <v>3.438993</v>
-      </c>
+      <c r="I9" s="12"/>
       <c r="J9" s="4">
         <v>3.438993</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K9" s="4">
+        <v>3.438993</v>
+      </c>
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="11">
         <v>1653</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="4">
         <v>9.9799999999999997E-4</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="4">
         <v>2.6393E-2</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="4">
         <v>0.14899999999999999</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <v>4.9655999999999999E-2</v>
       </c>
-      <c r="I10" s="4">
-        <v>3.9500000000000004E-3</v>
+      <c r="I10" s="12">
+        <v>9.2599999999999996E-4</v>
       </c>
       <c r="J10" s="4">
         <v>3.9500000000000004E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K10" s="4">
+        <v>3.9500000000000004E-3</v>
+      </c>
+      <c r="M10" s="17">
+        <f>ROUND(K10/I10,1)</f>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="12">
+      <c r="C11" s="4">
         <v>1.75E-4</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="4">
         <v>2.7959999999999999E-3</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="4">
         <v>0</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="4">
         <v>0</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <v>3.163E-3</v>
       </c>
-      <c r="I11" s="4">
-        <v>0</v>
+      <c r="I11" s="12">
+        <v>1.4799999999999999E-4</v>
       </c>
       <c r="J11" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="17">
+        <f>ROUND(K11/I11,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="12">
+      <c r="C12" s="4">
         <v>1.5499999999999999E-3</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="4">
         <v>6.5599999999999999E-3</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="4">
         <v>1E-3</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="4">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="12">
         <v>6.3546999999999992E-2</v>
       </c>
-      <c r="I12" s="4">
-        <v>2.2843969999999998</v>
+      <c r="I12" s="12">
+        <v>1.9740000000000001E-3</v>
       </c>
       <c r="J12" s="4">
         <v>2.2843969999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="15" t="s">
+      <c r="K12" s="4">
+        <v>2.2843969999999998</v>
+      </c>
+      <c r="M12" s="17">
+        <f>ROUND(K12/I12,1)</f>
+        <v>1157.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15">
         <f>SUM(C2:C12)</f>
         <v>2.0874249999999996</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="15">
         <f>SUM(D2:D12)</f>
         <v>14.250446999999999</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="15">
         <f>SUM(E2:E12)</f>
         <v>16.626000000000001</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="15">
         <f>SUM(F2:F12)</f>
         <v>22.856000000000002</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="16">
         <f>SUM(G2:G12)</f>
         <v>44.010232999999999</v>
       </c>
-      <c r="I13" s="4">
-        <f>SUM(I2:I12)</f>
-        <v>24.381200999999997</v>
-      </c>
+      <c r="I13" s="16"/>
       <c r="J13" s="4">
         <f>SUM(J2:J12)</f>
+        <v>24.381200999999997</v>
+      </c>
+      <c r="K13" s="4">
+        <f>SUM(K2:K12)</f>
         <v>90.835636999999991</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M13" s="17"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C15" s="3"/>
     </row>
   </sheetData>

--- a/Docs/Auswertung.xlsx
+++ b/Docs/Auswertung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\GitHub\Vergleichsprogramm\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7182842A-EB44-43F8-BDD9-935E35785D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274CE9F6-58BA-4738-98A9-8B8C3622E5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{388948E0-F48B-4D39-A8BF-521842870DDC}"/>
+    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11333" activeTab="1" xr2:uid="{388948E0-F48B-4D39-A8BF-521842870DDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Ergebnisse für Lesetest" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Write</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Modern C++</t>
+  </si>
+  <si>
+    <t>0.541604</t>
   </si>
 </sst>
 </file>
@@ -754,7 +757,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4479C0AE-B510-4E7D-B6C5-BA39171D2D0A}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
@@ -767,7 +770,7 @@
     <col min="12" max="12" width="2.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="7"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8" t="s">
@@ -795,7 +798,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
@@ -818,7 +821,7 @@
         <v>2.1536219999999999</v>
       </c>
       <c r="I2" s="12">
-        <v>8.8321999999999998E-2</v>
+        <v>7.6536999999999994E-2</v>
       </c>
       <c r="J2" s="4">
         <v>0.98143400000000003</v>
@@ -828,10 +831,14 @@
       </c>
       <c r="M2" s="17">
         <f>ROUND(K2/I2,1)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+        <v>12.7</v>
+      </c>
+      <c r="O2" s="2">
+        <f>C2-I2</f>
+        <v>2.6250000000000009E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
@@ -851,7 +858,7 @@
         <v>0.50436399999999992</v>
       </c>
       <c r="I3" s="12">
-        <v>5.6769999999999998E-3</v>
+        <v>5.4809999999999998E-3</v>
       </c>
       <c r="J3" s="4">
         <v>6.7713999999999996E-2</v>
@@ -861,10 +868,14 @@
       </c>
       <c r="M3" s="17">
         <f>ROUND(K3/I3,1)</f>
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+        <v>12.4</v>
+      </c>
+      <c r="O3" s="2">
+        <f t="shared" ref="O3:O12" si="0">C3-I3</f>
+        <v>-4.9499999999999978E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
@@ -884,20 +895,24 @@
         <v>1.83948</v>
       </c>
       <c r="I4" s="12">
-        <v>0.23141400000000001</v>
+        <v>0.219274</v>
       </c>
       <c r="J4" s="4">
         <v>6.52102</v>
       </c>
       <c r="K4" s="4">
-        <v>7.8458889999999997</v>
+        <v>7.5220079999999996</v>
       </c>
       <c r="M4" s="17">
         <f>ROUND(K4/I4,1)</f>
-        <v>33.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" si="0"/>
+        <v>3.6220000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
@@ -917,20 +932,24 @@
         <v>12.17784</v>
       </c>
       <c r="I5" s="12">
-        <v>0.40496399999999999</v>
+        <v>0.42164499999999999</v>
       </c>
       <c r="J5" s="4">
-        <v>1.7035400000000001</v>
+        <v>1.985722</v>
       </c>
       <c r="K5" s="4">
-        <v>1.7035400000000001</v>
+        <v>2.0132409999999998</v>
       </c>
       <c r="M5" s="17">
         <f>ROUND(K5/I5,1)</f>
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+        <v>4.8</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.20350699999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
@@ -949,7 +968,9 @@
       <c r="G6" s="12">
         <v>1.297598</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="J6" s="4">
         <v>1.3489249999999999</v>
       </c>
@@ -957,8 +978,9 @@
         <v>1.1634089999999999</v>
       </c>
       <c r="M6" s="17"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
@@ -978,20 +1000,24 @@
         <v>20.076326000000002</v>
       </c>
       <c r="I7" s="12">
-        <v>0.75113200000000002</v>
+        <v>0.72522900000000001</v>
       </c>
       <c r="J7" s="5">
         <v>7.962974</v>
       </c>
       <c r="K7" s="6">
-        <v>73.287053</v>
+        <v>73.923131999999995</v>
       </c>
       <c r="M7" s="17">
         <f>ROUND(K7/I7,1)</f>
-        <v>97.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+        <v>101.9</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.40759199999999984</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
@@ -1018,8 +1044,9 @@
         <v>6.8253999999999995E-2</v>
       </c>
       <c r="M8" s="17"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
@@ -1049,8 +1076,9 @@
         <v>3.438993</v>
       </c>
       <c r="M9" s="17"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
@@ -1085,8 +1113,12 @@
         <f>ROUND(K10/I10,1)</f>
         <v>4.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O10" s="2">
+        <f t="shared" si="0"/>
+        <v>7.2000000000000015E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="10" t="s">
         <v>15</v>
       </c>
@@ -1106,20 +1138,24 @@
         <v>3.163E-3</v>
       </c>
       <c r="I11" s="12">
-        <v>1.4799999999999999E-4</v>
+        <v>1.34E-4</v>
       </c>
       <c r="J11" s="4">
-        <v>0</v>
+        <v>3.4699999999999998E-4</v>
       </c>
       <c r="K11" s="4">
-        <v>0</v>
+        <v>3.4699999999999998E-4</v>
       </c>
       <c r="M11" s="17">
         <f>ROUND(K11/I11,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+        <v>2.6</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0999999999999994E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="10" t="s">
         <v>16</v>
       </c>
@@ -1139,20 +1175,24 @@
         <v>6.3546999999999992E-2</v>
       </c>
       <c r="I12" s="12">
-        <v>1.9740000000000001E-3</v>
+        <v>2.1900000000000001E-3</v>
       </c>
       <c r="J12" s="4">
-        <v>2.2843969999999998</v>
+        <v>5.293E-3</v>
       </c>
       <c r="K12" s="4">
-        <v>2.2843969999999998</v>
+        <v>5.293E-3</v>
       </c>
       <c r="M12" s="17">
         <f>ROUND(K12/I12,1)</f>
-        <v>1157.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+        <v>2.4</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="0"/>
+        <v>-6.4000000000000016E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="13" t="s">
         <v>17</v>
       </c>
@@ -1180,15 +1220,19 @@
       <c r="I13" s="16"/>
       <c r="J13" s="4">
         <f>SUM(J2:J12)</f>
-        <v>24.381200999999997</v>
+        <v>22.384626000000001</v>
       </c>
       <c r="K13" s="4">
         <f>SUM(K2:K12)</f>
-        <v>90.835636999999991</v>
+        <v>89.178778999999992</v>
       </c>
       <c r="M13" s="17"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O13" s="2">
+        <f>SUM(O2:O12)</f>
+        <v>0.26553299999999991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C15" s="3"/>
     </row>
   </sheetData>

--- a/Docs/Auswertung.xlsx
+++ b/Docs/Auswertung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\GitHub\Vergleichsprogramm\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274CE9F6-58BA-4738-98A9-8B8C3622E5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144668A1-0CE1-42CC-8EC4-C9D943F66B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11333" activeTab="1" xr2:uid="{388948E0-F48B-4D39-A8BF-521842870DDC}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11332" activeTab="1" xr2:uid="{388948E0-F48B-4D39-A8BF-521842870DDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Ergebnisse für Lesetest" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Write</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>Modern C++</t>
-  </si>
-  <si>
-    <t>0.541604</t>
   </si>
 </sst>
 </file>
@@ -760,7 +757,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -821,7 +818,7 @@
         <v>2.1536219999999999</v>
       </c>
       <c r="I2" s="12">
-        <v>7.6536999999999994E-2</v>
+        <v>7.3742000000000002E-2</v>
       </c>
       <c r="J2" s="4">
         <v>0.98143400000000003</v>
@@ -831,11 +828,11 @@
       </c>
       <c r="M2" s="17">
         <f>ROUND(K2/I2,1)</f>
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="O2" s="2">
         <f>C2-I2</f>
-        <v>2.6250000000000009E-2</v>
+        <v>2.9045000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
@@ -932,7 +929,7 @@
         <v>12.17784</v>
       </c>
       <c r="I5" s="12">
-        <v>0.42164499999999999</v>
+        <v>0.362848</v>
       </c>
       <c r="J5" s="4">
         <v>1.985722</v>
@@ -942,11 +939,11 @@
       </c>
       <c r="M5" s="17">
         <f>ROUND(K5/I5,1)</f>
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>-0.20350699999999999</v>
+        <v>-0.14471000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
@@ -968,8 +965,8 @@
       <c r="G6" s="12">
         <v>1.297598</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>26</v>
+      <c r="I6" s="12">
+        <v>0.22040299999999999</v>
       </c>
       <c r="J6" s="4">
         <v>1.3489249999999999</v>
@@ -1000,7 +997,7 @@
         <v>20.076326000000002</v>
       </c>
       <c r="I7" s="12">
-        <v>0.72522900000000001</v>
+        <v>0.75720100000000001</v>
       </c>
       <c r="J7" s="5">
         <v>7.962974</v>
@@ -1010,11 +1007,11 @@
       </c>
       <c r="M7" s="17">
         <f>ROUND(K7/I7,1)</f>
-        <v>101.9</v>
+        <v>97.6</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="0"/>
-        <v>0.40759199999999984</v>
+        <v>0.37561999999999984</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
@@ -1101,7 +1098,7 @@
         <v>4.9655999999999999E-2</v>
       </c>
       <c r="I10" s="12">
-        <v>9.2599999999999996E-4</v>
+        <v>8.9400000000000005E-4</v>
       </c>
       <c r="J10" s="4">
         <v>3.9500000000000004E-3</v>
@@ -1111,11 +1108,11 @@
       </c>
       <c r="M10" s="17">
         <f>ROUND(K10/I10,1)</f>
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="0"/>
-        <v>7.2000000000000015E-5</v>
+        <v>1.0399999999999993E-4</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
@@ -1138,7 +1135,7 @@
         <v>3.163E-3</v>
       </c>
       <c r="I11" s="12">
-        <v>1.34E-4</v>
+        <v>1.25E-4</v>
       </c>
       <c r="J11" s="4">
         <v>3.4699999999999998E-4</v>
@@ -1148,11 +1145,11 @@
       </c>
       <c r="M11" s="17">
         <f>ROUND(K11/I11,1)</f>
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="0"/>
-        <v>4.0999999999999994E-5</v>
+        <v>4.9999999999999996E-5</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
@@ -1175,7 +1172,7 @@
         <v>6.3546999999999992E-2</v>
       </c>
       <c r="I12" s="12">
-        <v>2.1900000000000001E-3</v>
+        <v>1.877E-3</v>
       </c>
       <c r="J12" s="4">
         <v>5.293E-3</v>
@@ -1185,11 +1182,11 @@
       </c>
       <c r="M12" s="17">
         <f>ROUND(K12/I12,1)</f>
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="0"/>
-        <v>-6.4000000000000016E-4</v>
+        <v>-3.2700000000000003E-4</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
@@ -1217,7 +1214,10 @@
         <f>SUM(G2:G12)</f>
         <v>44.010232999999999</v>
       </c>
-      <c r="I13" s="16"/>
+      <c r="I13" s="16">
+        <f>SUM(I2:I12)</f>
+        <v>1.641845</v>
+      </c>
       <c r="J13" s="4">
         <f>SUM(J2:J12)</f>
         <v>22.384626000000001</v>
@@ -1229,7 +1229,7 @@
       <c r="M13" s="17"/>
       <c r="O13" s="2">
         <f>SUM(O2:O12)</f>
-        <v>0.26553299999999991</v>
+        <v>0.2955069999999998</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">

--- a/Docs/Auswertung.xlsx
+++ b/Docs/Auswertung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\GitHub\Vergleichsprogramm\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144668A1-0CE1-42CC-8EC4-C9D943F66B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FD1947-8498-467F-9516-B3C9EF772A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11332" activeTab="1" xr2:uid="{388948E0-F48B-4D39-A8BF-521842870DDC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{388948E0-F48B-4D39-A8BF-521842870DDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Ergebnisse für Lesetest" sheetId="2" r:id="rId1"/>
@@ -757,7 +757,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1033,7 +1033,9 @@
       <c r="G8" s="12">
         <v>0.153339</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="I8" s="12">
+        <v>6.4102999999999993E-2</v>
+      </c>
       <c r="J8" s="4">
         <v>6.8253999999999995E-2</v>
       </c>
@@ -1065,7 +1067,9 @@
       <c r="G9" s="12">
         <v>5.6912979999999997</v>
       </c>
-      <c r="I9" s="12"/>
+      <c r="I9" s="12">
+        <v>0.197606</v>
+      </c>
       <c r="J9" s="4">
         <v>3.438993</v>
       </c>
@@ -1216,7 +1220,7 @@
       </c>
       <c r="I13" s="16">
         <f>SUM(I2:I12)</f>
-        <v>1.641845</v>
+        <v>1.903554</v>
       </c>
       <c r="J13" s="4">
         <f>SUM(J2:J12)</f>

--- a/Docs/Auswertung.xlsx
+++ b/Docs/Auswertung.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\GitHub\Vergleichsprogramm\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FD1947-8498-467F-9516-B3C9EF772A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A81103-541E-4203-B2A0-B32C4DBEB426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{388948E0-F48B-4D39-A8BF-521842870DDC}"/>
+    <workbookView xWindow="5632" yWindow="1673" windowWidth="21601" windowHeight="11332" activeTab="1" xr2:uid="{388948E0-F48B-4D39-A8BF-521842870DDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Ergebnisse für Lesetest" sheetId="2" r:id="rId1"/>
     <sheet name="1. Stage" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -757,13 +757,14 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="44.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2.59765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -817,8 +818,8 @@
       <c r="G2" s="12">
         <v>2.1536219999999999</v>
       </c>
-      <c r="I2" s="12">
-        <v>7.3742000000000002E-2</v>
+      <c r="I2" s="4">
+        <v>7.0054000000000005E-2</v>
       </c>
       <c r="J2" s="4">
         <v>0.98143400000000003</v>
@@ -827,12 +828,12 @@
         <v>0.97243800000000002</v>
       </c>
       <c r="M2" s="17">
-        <f>ROUND(K2/I2,1)</f>
-        <v>13.2</v>
+        <f t="shared" ref="M2:M13" si="0">ROUND(K2/I2,1)</f>
+        <v>13.9</v>
       </c>
       <c r="O2" s="2">
         <f>C2-I2</f>
-        <v>2.9045000000000001E-2</v>
+        <v>3.2732999999999998E-2</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
@@ -854,8 +855,8 @@
       <c r="G3" s="12">
         <v>0.50436399999999992</v>
       </c>
-      <c r="I3" s="12">
-        <v>5.4809999999999998E-3</v>
+      <c r="I3" s="4">
+        <v>4.0549999999999996E-3</v>
       </c>
       <c r="J3" s="4">
         <v>6.7713999999999996E-2</v>
@@ -864,12 +865,12 @@
         <v>6.7713999999999996E-2</v>
       </c>
       <c r="M3" s="17">
-        <f>ROUND(K3/I3,1)</f>
-        <v>12.4</v>
+        <f t="shared" si="0"/>
+        <v>16.7</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" ref="O3:O12" si="0">C3-I3</f>
-        <v>-4.9499999999999978E-4</v>
+        <f t="shared" ref="O3:O12" si="1">C3-I3</f>
+        <v>9.310000000000004E-4</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
@@ -891,8 +892,8 @@
       <c r="G4" s="12">
         <v>1.83948</v>
       </c>
-      <c r="I4" s="12">
-        <v>0.219274</v>
+      <c r="I4" s="4">
+        <v>0.20860899999999999</v>
       </c>
       <c r="J4" s="4">
         <v>6.52102</v>
@@ -901,12 +902,12 @@
         <v>7.5220079999999996</v>
       </c>
       <c r="M4" s="17">
-        <f>ROUND(K4/I4,1)</f>
-        <v>34.299999999999997</v>
+        <f t="shared" si="0"/>
+        <v>36.1</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" si="0"/>
-        <v>3.6220000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.688500000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
@@ -928,8 +929,8 @@
       <c r="G5" s="12">
         <v>12.17784</v>
       </c>
-      <c r="I5" s="12">
-        <v>0.362848</v>
+      <c r="I5" s="4">
+        <v>0.12348000000000001</v>
       </c>
       <c r="J5" s="4">
         <v>1.985722</v>
@@ -938,12 +939,12 @@
         <v>2.0132409999999998</v>
       </c>
       <c r="M5" s="17">
-        <f>ROUND(K5/I5,1)</f>
-        <v>5.5</v>
+        <f t="shared" si="0"/>
+        <v>16.3</v>
       </c>
       <c r="O5" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.14471000000000001</v>
+        <f t="shared" si="1"/>
+        <v>9.4657999999999992E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
@@ -965,8 +966,8 @@
       <c r="G6" s="12">
         <v>1.297598</v>
       </c>
-      <c r="I6" s="12">
-        <v>0.22040299999999999</v>
+      <c r="I6" s="4">
+        <v>7.0458000000000007E-2</v>
       </c>
       <c r="J6" s="4">
         <v>1.3489249999999999</v>
@@ -974,8 +975,14 @@
       <c r="K6" s="4">
         <v>1.1634089999999999</v>
       </c>
-      <c r="M6" s="17"/>
-      <c r="O6" s="2"/>
+      <c r="M6" s="17">
+        <f t="shared" si="0"/>
+        <v>16.5</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12897799999999998</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
@@ -996,8 +1003,8 @@
       <c r="G7" s="12">
         <v>20.076326000000002</v>
       </c>
-      <c r="I7" s="12">
-        <v>0.75720100000000001</v>
+      <c r="I7" s="5">
+        <v>0.79725500000000005</v>
       </c>
       <c r="J7" s="5">
         <v>7.962974</v>
@@ -1006,12 +1013,12 @@
         <v>73.923131999999995</v>
       </c>
       <c r="M7" s="17">
-        <f>ROUND(K7/I7,1)</f>
-        <v>97.6</v>
+        <f t="shared" si="0"/>
+        <v>92.7</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.37561999999999984</v>
+        <f t="shared" si="1"/>
+        <v>0.33556599999999981</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
@@ -1033,8 +1040,8 @@
       <c r="G8" s="12">
         <v>0.153339</v>
       </c>
-      <c r="I8" s="12">
-        <v>6.4102999999999993E-2</v>
+      <c r="I8" s="4">
+        <v>2.3390000000000001E-2</v>
       </c>
       <c r="J8" s="4">
         <v>6.8253999999999995E-2</v>
@@ -1042,8 +1049,14 @@
       <c r="K8" s="4">
         <v>6.8253999999999995E-2</v>
       </c>
-      <c r="M8" s="17"/>
-      <c r="O8" s="2"/>
+      <c r="M8" s="17">
+        <f t="shared" si="0"/>
+        <v>2.9</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="1"/>
+        <v>3.1799999999999884E-4</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
@@ -1067,8 +1080,8 @@
       <c r="G9" s="12">
         <v>5.6912979999999997</v>
       </c>
-      <c r="I9" s="12">
-        <v>0.197606</v>
+      <c r="I9" s="4">
+        <v>0.18693000000000001</v>
       </c>
       <c r="J9" s="4">
         <v>3.438993</v>
@@ -1076,8 +1089,14 @@
       <c r="K9" s="4">
         <v>3.438993</v>
       </c>
-      <c r="M9" s="17"/>
-      <c r="O9" s="2"/>
+      <c r="M9" s="17">
+        <f t="shared" si="0"/>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="1"/>
+        <v>-3.9598000000000022E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="10" t="s">
@@ -1101,8 +1120,8 @@
       <c r="G10" s="12">
         <v>4.9655999999999999E-2</v>
       </c>
-      <c r="I10" s="12">
-        <v>8.9400000000000005E-4</v>
+      <c r="I10" s="4">
+        <v>9.4799999999999995E-4</v>
       </c>
       <c r="J10" s="4">
         <v>3.9500000000000004E-3</v>
@@ -1111,12 +1130,12 @@
         <v>3.9500000000000004E-3</v>
       </c>
       <c r="M10" s="17">
-        <f>ROUND(K10/I10,1)</f>
-        <v>4.4000000000000004</v>
+        <f t="shared" si="0"/>
+        <v>4.2</v>
       </c>
       <c r="O10" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0399999999999993E-4</v>
+        <f t="shared" si="1"/>
+        <v>5.0000000000000023E-5</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
@@ -1138,8 +1157,8 @@
       <c r="G11" s="12">
         <v>3.163E-3</v>
       </c>
-      <c r="I11" s="12">
-        <v>1.25E-4</v>
+      <c r="I11" s="4">
+        <v>1.34E-4</v>
       </c>
       <c r="J11" s="4">
         <v>3.4699999999999998E-4</v>
@@ -1148,12 +1167,12 @@
         <v>3.4699999999999998E-4</v>
       </c>
       <c r="M11" s="17">
-        <f>ROUND(K11/I11,1)</f>
-        <v>2.8</v>
+        <f t="shared" si="0"/>
+        <v>2.6</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" si="0"/>
-        <v>4.9999999999999996E-5</v>
+        <f t="shared" si="1"/>
+        <v>4.0999999999999994E-5</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
@@ -1175,8 +1194,8 @@
       <c r="G12" s="12">
         <v>6.3546999999999992E-2</v>
       </c>
-      <c r="I12" s="12">
-        <v>1.877E-3</v>
+      <c r="I12" s="4">
+        <v>8.03E-4</v>
       </c>
       <c r="J12" s="4">
         <v>5.293E-3</v>
@@ -1185,12 +1204,12 @@
         <v>5.293E-3</v>
       </c>
       <c r="M12" s="17">
-        <f>ROUND(K12/I12,1)</f>
-        <v>2.8</v>
+        <f t="shared" si="0"/>
+        <v>6.6</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="0"/>
-        <v>-3.2700000000000003E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.4699999999999994E-4</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
@@ -1220,7 +1239,7 @@
       </c>
       <c r="I13" s="16">
         <f>SUM(I2:I12)</f>
-        <v>1.903554</v>
+        <v>1.4861160000000002</v>
       </c>
       <c r="J13" s="4">
         <f>SUM(J2:J12)</f>
@@ -1230,10 +1249,13 @@
         <f>SUM(K2:K12)</f>
         <v>89.178778999999992</v>
       </c>
-      <c r="M13" s="17"/>
+      <c r="M13" s="17">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
       <c r="O13" s="2">
         <f>SUM(O2:O12)</f>
-        <v>0.2955069999999998</v>
+        <v>0.60130899999999976</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">

--- a/Docs/Auswertung.xlsx
+++ b/Docs/Auswertung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\GitHub\Vergleichsprogramm\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A81103-541E-4203-B2A0-B32C4DBEB426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD458B9-B1CE-46B2-A565-0077C9BDEB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5632" yWindow="1673" windowWidth="21601" windowHeight="11332" activeTab="1" xr2:uid="{388948E0-F48B-4D39-A8BF-521842870DDC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{388948E0-F48B-4D39-A8BF-521842870DDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Ergebnisse für Lesetest" sheetId="2" r:id="rId1"/>
@@ -757,7 +757,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -856,7 +856,7 @@
         <v>0.50436399999999992</v>
       </c>
       <c r="I3" s="4">
-        <v>4.0549999999999996E-3</v>
+        <v>3.6519999999999999E-3</v>
       </c>
       <c r="J3" s="4">
         <v>6.7713999999999996E-2</v>
@@ -866,11 +866,11 @@
       </c>
       <c r="M3" s="17">
         <f t="shared" si="0"/>
-        <v>16.7</v>
+        <v>18.5</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" ref="O3:O12" si="1">C3-I3</f>
-        <v>9.310000000000004E-4</v>
+        <v>1.3340000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
@@ -893,7 +893,7 @@
         <v>1.83948</v>
       </c>
       <c r="I4" s="4">
-        <v>0.20860899999999999</v>
+        <v>0.20424600000000001</v>
       </c>
       <c r="J4" s="4">
         <v>6.52102</v>
@@ -903,11 +903,11 @@
       </c>
       <c r="M4" s="17">
         <f t="shared" si="0"/>
-        <v>36.1</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="1"/>
-        <v>4.688500000000001E-2</v>
+        <v>5.1247999999999988E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
@@ -930,7 +930,7 @@
         <v>12.17784</v>
       </c>
       <c r="I5" s="4">
-        <v>0.12348000000000001</v>
+        <v>0.115025</v>
       </c>
       <c r="J5" s="4">
         <v>1.985722</v>
@@ -940,11 +940,11 @@
       </c>
       <c r="M5" s="17">
         <f t="shared" si="0"/>
-        <v>16.3</v>
+        <v>17.5</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="1"/>
-        <v>9.4657999999999992E-2</v>
+        <v>0.103113</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
@@ -1004,7 +1004,7 @@
         <v>20.076326000000002</v>
       </c>
       <c r="I7" s="5">
-        <v>0.79725500000000005</v>
+        <v>0.73914899999999994</v>
       </c>
       <c r="J7" s="5">
         <v>7.962974</v>
@@ -1014,11 +1014,11 @@
       </c>
       <c r="M7" s="17">
         <f t="shared" si="0"/>
-        <v>92.7</v>
+        <v>100</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="1"/>
-        <v>0.33556599999999981</v>
+        <v>0.39367199999999991</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
@@ -1041,7 +1041,7 @@
         <v>0.153339</v>
       </c>
       <c r="I8" s="4">
-        <v>2.3390000000000001E-2</v>
+        <v>2.2568000000000001E-2</v>
       </c>
       <c r="J8" s="4">
         <v>6.8253999999999995E-2</v>
@@ -1051,11 +1051,11 @@
       </c>
       <c r="M8" s="17">
         <f t="shared" si="0"/>
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="1"/>
-        <v>3.1799999999999884E-4</v>
+        <v>1.1399999999999987E-3</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
@@ -1081,7 +1081,7 @@
         <v>5.6912979999999997</v>
       </c>
       <c r="I9" s="4">
-        <v>0.18693000000000001</v>
+        <v>0.18345800000000001</v>
       </c>
       <c r="J9" s="4">
         <v>3.438993</v>
@@ -1091,11 +1091,11 @@
       </c>
       <c r="M9" s="17">
         <f t="shared" si="0"/>
-        <v>18.399999999999999</v>
+        <v>18.7</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="1"/>
-        <v>-3.9598000000000022E-2</v>
+        <v>-3.6126000000000019E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
@@ -1121,7 +1121,7 @@
         <v>4.9655999999999999E-2</v>
       </c>
       <c r="I10" s="4">
-        <v>9.4799999999999995E-4</v>
+        <v>9.0200000000000002E-4</v>
       </c>
       <c r="J10" s="4">
         <v>3.9500000000000004E-3</v>
@@ -1131,11 +1131,11 @@
       </c>
       <c r="M10" s="17">
         <f t="shared" si="0"/>
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="1"/>
-        <v>5.0000000000000023E-5</v>
+        <v>9.5999999999999948E-5</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
@@ -1158,7 +1158,7 @@
         <v>3.163E-3</v>
       </c>
       <c r="I11" s="4">
-        <v>1.34E-4</v>
+        <v>1.3300000000000001E-4</v>
       </c>
       <c r="J11" s="4">
         <v>3.4699999999999998E-4</v>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="O11" s="2">
         <f t="shared" si="1"/>
-        <v>4.0999999999999994E-5</v>
+        <v>4.1999999999999991E-5</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="I13" s="16">
         <f>SUM(I2:I12)</f>
-        <v>1.4861160000000002</v>
+        <v>1.4104479999999999</v>
       </c>
       <c r="J13" s="4">
         <f>SUM(J2:J12)</f>
@@ -1251,11 +1251,11 @@
       </c>
       <c r="M13" s="17">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>63.2</v>
       </c>
       <c r="O13" s="2">
         <f>SUM(O2:O12)</f>
-        <v>0.60130899999999976</v>
+        <v>0.67697699999999994</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">

--- a/Docs/Auswertung.xlsx
+++ b/Docs/Auswertung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\GitHub\Vergleichsprogramm\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD458B9-B1CE-46B2-A565-0077C9BDEB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32425DE9-C691-4971-9B2A-92768153BAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{388948E0-F48B-4D39-A8BF-521842870DDC}"/>
   </bookViews>
@@ -757,7 +757,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1041,7 +1041,7 @@
         <v>0.153339</v>
       </c>
       <c r="I8" s="4">
-        <v>2.2568000000000001E-2</v>
+        <v>2.0759E-2</v>
       </c>
       <c r="J8" s="4">
         <v>6.8253999999999995E-2</v>
@@ -1051,11 +1051,11 @@
       </c>
       <c r="M8" s="17">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="1"/>
-        <v>1.1399999999999987E-3</v>
+        <v>2.9490000000000002E-3</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
@@ -1081,7 +1081,7 @@
         <v>5.6912979999999997</v>
       </c>
       <c r="I9" s="4">
-        <v>0.18345800000000001</v>
+        <v>0.17763300000000001</v>
       </c>
       <c r="J9" s="4">
         <v>3.438993</v>
@@ -1091,11 +1091,11 @@
       </c>
       <c r="M9" s="17">
         <f t="shared" si="0"/>
-        <v>18.7</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="1"/>
-        <v>-3.6126000000000019E-2</v>
+        <v>-3.0301000000000022E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="I13" s="16">
         <f>SUM(I2:I12)</f>
-        <v>1.4104479999999999</v>
+        <v>1.4028139999999998</v>
       </c>
       <c r="J13" s="4">
         <f>SUM(J2:J12)</f>
@@ -1251,11 +1251,11 @@
       </c>
       <c r="M13" s="17">
         <f t="shared" si="0"/>
-        <v>63.2</v>
+        <v>63.6</v>
       </c>
       <c r="O13" s="2">
         <f>SUM(O2:O12)</f>
-        <v>0.67697699999999994</v>
+        <v>0.68461099999999986</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
